--- a/output/below_50/tRNA-iMet-CAT-1-1.xlsx
+++ b/output/below_50/tRNA-iMet-CAT-1-1.xlsx
@@ -12,201 +12,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
   <si>
     <t>chr1</t>
   </si>
   <si>
-    <t>153643233</t>
-  </si>
-  <si>
-    <t>153643256</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>153643731</t>
+  </si>
+  <si>
+    <t>153643754</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>153643751</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GTGGCGCAGCGGAAGCGTGC</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>153643732</t>
+  </si>
+  <si>
+    <t>153643755</t>
+  </si>
+  <si>
+    <t>153643752</t>
+  </si>
+  <si>
+    <t>TGGCGCAGCGGAAGCGTGCT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>153643747</t>
+  </si>
+  <si>
+    <t>153643770</t>
+  </si>
+  <si>
+    <t>153643767</t>
+  </si>
+  <si>
+    <t>GTGCTGGGCCCATAACCCAG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>100% (75)</t>
+  </si>
+  <si>
+    <t>95% (76)</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>153643777</t>
+  </si>
+  <si>
+    <t>153643774</t>
+  </si>
+  <si>
+    <t>GCCCATAACCCAGAGGTCGA</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>25% (33)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>153643778</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>153643236</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>ATAGTGGGAGAGATGGAGGC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>84% (61)</t>
-  </si>
-  <si>
-    <t>87% (66)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 21, Doench 2016: 84%, Moreno-Mateos: 87%</t>
-  </si>
-  <si>
-    <t>2.25343E+11</t>
-  </si>
-  <si>
-    <t>153643237</t>
-  </si>
-  <si>
-    <t>153643260</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>153643240</t>
-  </si>
-  <si>
-    <t>TAGGATAGTGGGAGAGATGG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>97% (80)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 36, Doench 2016: 84%, Moreno-Mateos: 97%</t>
-  </si>
-  <si>
-    <t>2.7876E+11</t>
-  </si>
-  <si>
-    <t>153643731</t>
-  </si>
-  <si>
-    <t>153643754</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>153643751</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>GTGGCGCAGCGGAAGCGTGC</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>27% (34)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>153643732</t>
-  </si>
-  <si>
-    <t>153643755</t>
-  </si>
-  <si>
-    <t>153643752</t>
-  </si>
-  <si>
-    <t>TGGCGCAGCGGAAGCGTGCT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>153643747</t>
-  </si>
-  <si>
-    <t>153643770</t>
-  </si>
-  <si>
-    <t>153643767</t>
-  </si>
-  <si>
-    <t>GTGCTGGGCCCATAACCCAG</t>
-  </si>
-  <si>
-    <t>100% (75)</t>
-  </si>
-  <si>
-    <t>95% (76)</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>153643777</t>
-  </si>
-  <si>
-    <t>153643774</t>
-  </si>
-  <si>
-    <t>GCCCATAACCCAGAGGTCGA</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>25% (33)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>153643778</t>
   </si>
   <si>
     <t>153643758</t>
@@ -329,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -352,10 +283,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -373,25 +304,25 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -405,16 +336,16 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -426,31 +357,31 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -458,58 +389,58 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -517,58 +448,58 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,58 +507,58 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -635,58 +566,58 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -694,58 +625,58 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -753,176 +684,58 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
